--- a/01_ProjectPlanning/Schedule.xlsx
+++ b/01_ProjectPlanning/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\07_Templates\03_ProductBurndown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DF173-47CA-44D2-BE7E-C096122BA436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B63AD-DDE3-4107-BFD4-C937F7BCAB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,10 +507,10 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
       </c>
       <c r="E7">
         <v>4</v>

--- a/01_ProjectPlanning/Schedule.xlsx
+++ b/01_ProjectPlanning/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B63AD-DDE3-4107-BFD4-C937F7BCAB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630817E-75D3-4B40-A854-0B8E12DDC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,10 +507,10 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>10</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
       </c>
       <c r="E7">
         <v>4</v>

--- a/01_ProjectPlanning/Schedule.xlsx
+++ b/01_ProjectPlanning/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630817E-75D3-4B40-A854-0B8E12DDC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E98880-6AE1-4172-AF08-ACF8CEF5DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,10 +510,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -527,13 +527,16 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/01_ProjectPlanning/Schedule.xlsx
+++ b/01_ProjectPlanning/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E98880-6AE1-4172-AF08-ACF8CEF5DAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF3731B-11BF-4F10-A306-00C109F675DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,10 +530,10 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>39.75</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>

--- a/01_ProjectPlanning/Schedule.xlsx
+++ b/01_ProjectPlanning/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF3731B-11BF-4F10-A306-00C109F675DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F8492-20BA-4D15-8E0F-C734EF3830F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -530,10 +530,10 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>39.75</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>

--- a/01_ProjectPlanning/Schedule.xlsx
+++ b/01_ProjectPlanning/Schedule.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\HTBLA_Leonding\3.Klasse\SYP\MTB-Tracker\01_ProjectPlanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F8492-20BA-4D15-8E0F-C734EF3830F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B3C91-3D3A-4A0C-9FA2-D4A82864096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Task</t>
   </si>
@@ -48,15 +56,6 @@
     <t>Software Testing</t>
   </si>
   <si>
-    <t>Firmware Prototyp</t>
-  </si>
-  <si>
-    <t>Hardware Assembly</t>
-  </si>
-  <si>
-    <t>Hardware Enclosure</t>
-  </si>
-  <si>
     <t>Software Technology Selection</t>
   </si>
   <si>
@@ -66,16 +65,7 @@
     <t>Software Coding</t>
   </si>
   <si>
-    <t>Testing/Shredding</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Max, Alex</t>
-  </si>
-  <si>
-    <t>Hardware Selection</t>
   </si>
 </sst>
 </file>
@@ -393,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,10 +417,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -442,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -450,16 +440,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -467,127 +460,39 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
